--- a/data/baseline+diary/003_-_Full_Utregning.xlsx
+++ b/data/baseline+diary/003_-_Full_Utregning.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deltakere (complete)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/saa054_uit_no/Documents/0 - Forskerlinjen/.2--MW_Sleep-Article/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B038D-8A4D-4371-ACE1-11DD635A1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{DE7B038D-8A4D-4371-ACE1-11DD635A1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D8B7FB8-4BE4-40D3-AFBA-360034A7941C}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="3780" windowWidth="14400" windowHeight="8300" firstSheet="1" activeTab="3" xr2:uid="{AD6D089E-9814-4872-BBFB-296E4CC5E2AD}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" activeTab="3" xr2:uid="{AD6D089E-9814-4872-BBFB-296E4CC5E2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="4" r:id="rId1"/>
     <sheet name="Sleep Quiz" sheetId="1" r:id="rId2"/>
     <sheet name="Sleep Diary" sheetId="3" r:id="rId3"/>
-    <sheet name="PANAS" sheetId="2" r:id="rId4"/>
-    <sheet name="Feedback-comments" sheetId="5" r:id="rId5"/>
+    <sheet name="sleepdiary2" sheetId="6" r:id="rId4"/>
+    <sheet name="PANAS" sheetId="2" r:id="rId5"/>
+    <sheet name="Feedback-comments" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="296">
   <si>
     <t>2 - Fatigue</t>
   </si>
@@ -1589,6 +1590,30 @@
   </si>
   <si>
     <t>&lt;</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1978,7 +2003,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1998,11 +2022,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2012,12 +2035,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2027,11 +2048,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,7 +2061,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2054,7 +2075,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -2073,13 +2101,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2130,7 +2151,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -2164,7 +2185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2466,31 +2487,30 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="62" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="37">
         <v>3</v>
       </c>
@@ -2498,12 +2518,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="37">
         <v>20</v>
       </c>
@@ -2511,12 +2530,11 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="37">
         <v>2</v>
       </c>
@@ -2524,12 +2542,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="37">
         <v>0</v>
       </c>
@@ -2537,12 +2554,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="37">
         <v>1</v>
       </c>
@@ -2550,78 +2566,73 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="45" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="84">
+      <c r="C7" s="46"/>
+      <c r="D7" s="80">
         <v>44264</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="60" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="45" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="37">
         <v>10</v>
       </c>
       <c r="E8" s="15">
         <v>45</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="78">
         <f>((E8/0.6)/100)+D8</f>
         <v>10.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="84">
+      <c r="C9" s="46"/>
+      <c r="D9" s="80">
         <v>44271</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="60" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
-      <c r="B10" s="45" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="37">
         <v>11</v>
       </c>
       <c r="E10" s="15">
         <v>45</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="82">
+      <c r="H10" s="78">
         <f>((E10/0.6)/100)+D10</f>
         <v>11.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="45" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="37">
         <v>0</v>
       </c>
@@ -2629,79 +2640,76 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="45" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="37">
         <v>0</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="45" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="43">
-        <v>0</v>
-      </c>
-      <c r="F13" s="62" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="42">
+        <v>0</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="78">
         <f>IF(ISTEXT(D13)=TRUE,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="45" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="37">
         <v>0</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="65"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="45" t="s">
+      <c r="D15" s="63"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="66"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C17" s="42" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="64"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="43">
         <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C18" s="42" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="41" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="15">
@@ -2711,11 +2719,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="45" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="15">
         <v>1</v>
       </c>
@@ -2723,69 +2731,69 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="45" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="68"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C21" s="42" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="66"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="65">
         <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C22" s="42" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="42">
         <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="45" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="68"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C24" s="42" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="66"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="65">
         <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C25" s="52" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="42">
         <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="45" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="37">
         <v>1</v>
       </c>
@@ -2793,11 +2801,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="45" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="14">
         <f>SUM(D17:D26)/COUNT(D17:D26)</f>
         <v>0.875</v>
@@ -2806,152 +2814,152 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="50" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="72"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="45" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="69"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
       <c r="M29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="45" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="45" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B32" s="45" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
       <c r="M32" s="37"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="50" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="72"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="45" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="69"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
       <c r="M34" s="37"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="45" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
       <c r="M35" s="37"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B36" s="45" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B37" s="45" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="54" t="s">
+      <c r="C37" s="46"/>
+      <c r="D37" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
       <c r="M37" s="37"/>
     </row>
   </sheetData>
@@ -2969,39 +2977,39 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="1"/>
-    <col min="9" max="9" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="7.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.1796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="7" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.81640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="3.453125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.453125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.453125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.453125" style="1"/>
+    <col min="27" max="27" width="4.42578125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -3028,14 +3036,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="55"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3091,14 +3099,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="57">
-        <v>1</v>
-      </c>
-      <c r="C3" s="56"/>
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="55"/>
       <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
@@ -3156,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>167</v>
       </c>
@@ -3218,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -3356,7 +3364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -3419,7 +3427,7 @@
       </c>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -3475,14 +3483,14 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="11">
         <v>10</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="71"/>
       <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
@@ -3529,7 +3537,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3582,14 +3590,13 @@
       <c r="Z10"/>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="75"/>
       <c r="E11" s="8" t="s">
         <v>43</v>
       </c>
@@ -3629,14 +3636,14 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="73">
-        <v>0</v>
-      </c>
-      <c r="C12" s="56"/>
+      <c r="B12" s="70">
+        <v>0</v>
+      </c>
+      <c r="C12" s="55"/>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
@@ -3661,7 +3668,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="39" t="s">
+      <c r="Q12" s="38" t="s">
         <v>46</v>
       </c>
       <c r="R12" s="24">
@@ -3677,7 +3684,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="N13" s="10" t="s">
         <v>48</v>
       </c>
@@ -3688,7 +3695,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="38" t="s">
         <v>49</v>
       </c>
       <c r="R13" s="24" cm="1">
@@ -3704,7 +3711,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="N14" s="10" t="s">
         <v>51</v>
       </c>
@@ -3715,7 +3722,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="38" t="s">
         <v>52</v>
       </c>
       <c r="R14" s="24">
@@ -3731,7 +3738,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="N15" s="10" t="s">
         <v>54</v>
       </c>
@@ -3742,7 +3749,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="39" t="s">
+      <c r="Q15" s="38" t="s">
         <v>55</v>
       </c>
       <c r="R15" s="24" cm="1">
@@ -3758,7 +3765,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="N16" s="10" t="s">
         <v>57</v>
       </c>
@@ -3769,7 +3776,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="39" t="s">
+      <c r="Q16" s="38" t="s">
         <v>58</v>
       </c>
       <c r="R16" s="24" cm="1">
@@ -3785,7 +3792,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3799,7 +3806,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="Q17" s="38" t="s">
         <v>61</v>
       </c>
       <c r="R17" s="24">
@@ -3815,7 +3822,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N18" s="10" t="s">
         <v>63</v>
       </c>
@@ -3826,7 +3833,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="39" t="s">
+      <c r="Q18" s="38" t="s">
         <v>64</v>
       </c>
       <c r="R18" s="24" cm="1">
@@ -3842,7 +3849,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N19" s="10" t="s">
         <v>66</v>
       </c>
@@ -3869,7 +3876,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N20" s="10" t="s">
         <v>69</v>
       </c>
@@ -3892,7 +3899,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N21" s="10" t="s">
         <v>72</v>
       </c>
@@ -3915,7 +3922,7 @@
       </c>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N22" s="10" t="s">
         <v>74</v>
       </c>
@@ -3936,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="N23" s="10" t="s">
         <v>76</v>
       </c>
@@ -3952,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>170</v>
       </c>
@@ -3960,1178 +3967,1173 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="58"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+      <c r="B41" s="57"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="40" t="s">
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="40" t="s">
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="40" t="s">
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="40" t="s">
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="40" t="s">
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="59"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
+      <c r="C63" s="58"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="58" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A65" s="40" t="s">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A66" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A67" s="40" t="s">
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A67" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A68" s="40" t="s">
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A68" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A69" s="40" t="s">
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A69" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A70" s="40" t="s">
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A70" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A72" s="61" t="s">
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A72" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="B72" s="61" t="s">
+      <c r="B72" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A73" s="40" t="s">
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A73" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A74" s="40" t="s">
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A74" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A75" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A76" s="40" t="s">
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A76" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B76" s="59" t="s">
+      <c r="B76" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A77" s="40" t="s">
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A77" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="59"/>
-      <c r="T77" s="59"/>
-      <c r="U77" s="59"/>
-      <c r="V77" s="59"/>
-      <c r="W77" s="59"/>
-      <c r="X77" s="59"/>
-      <c r="Y77" s="59"/>
-      <c r="Z77" s="59"/>
-      <c r="AA77" s="59"/>
-      <c r="AB77" s="59"/>
-      <c r="AC77" s="59"/>
-      <c r="AD77" s="59"/>
-      <c r="AE77" s="59"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A78" s="40" t="s">
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58"/>
+      <c r="N77" s="58"/>
+      <c r="O77" s="58"/>
+      <c r="P77" s="58"/>
+      <c r="Q77" s="58"/>
+      <c r="R77" s="58"/>
+      <c r="S77" s="58"/>
+      <c r="T77" s="58"/>
+      <c r="U77" s="58"/>
+      <c r="V77" s="58"/>
+      <c r="W77" s="58"/>
+      <c r="X77" s="58"/>
+      <c r="Y77" s="58"/>
+      <c r="Z77" s="58"/>
+      <c r="AA77" s="58"/>
+      <c r="AB77" s="58"/>
+      <c r="AC77" s="58"/>
+      <c r="AD77" s="58"/>
+      <c r="AE77" s="58"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A78" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="59"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="59"/>
-      <c r="S78" s="59"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A79" s="40" t="s">
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="58"/>
+      <c r="S78" s="58"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="58"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A80" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A81" s="40" t="s">
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="58"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="59" t="s">
+      <c r="B81" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="59" t="s">
+      <c r="B83" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A84" s="40" t="s">
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
-      <c r="X84" s="59"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A85" s="40" t="s">
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="58"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="58"/>
+      <c r="P84" s="58"/>
+      <c r="Q84" s="58"/>
+      <c r="R84" s="58"/>
+      <c r="S84" s="58"/>
+      <c r="T84" s="58"/>
+      <c r="U84" s="58"/>
+      <c r="V84" s="58"/>
+      <c r="W84" s="58"/>
+      <c r="X84" s="58"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A86" s="40" t="s">
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A87" s="40" t="s">
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A88" s="40" t="s">
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A88" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A89" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="B89" s="59" t="s">
+      <c r="B89" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A90" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" s="40" t="s">
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A91" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A92" s="40" t="s">
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A92" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A93" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" s="39" t="s">
         <v>228</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="40" t="s">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B95" s="59" t="s">
+      <c r="B95" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="58"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A96" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="59"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="59"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="59"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="59"/>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="58"/>
+      <c r="L96" s="58"/>
+      <c r="M96" s="58"/>
+      <c r="N96" s="58"/>
+      <c r="O96" s="58"/>
+      <c r="P96" s="58"/>
+      <c r="Q96" s="58"/>
+      <c r="R96" s="58"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A97" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="B97" s="59" t="s">
+      <c r="B97" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A98" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="B98" s="59" t="s">
+      <c r="B98" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="59"/>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A99" s="40" t="s">
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="58"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="58"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A99" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="59"/>
-      <c r="S99" s="59"/>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A101" s="61" t="s">
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="58"/>
+      <c r="O99" s="58"/>
+      <c r="P99" s="58"/>
+      <c r="Q99" s="58"/>
+      <c r="R99" s="58"/>
+      <c r="S99" s="58"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A101" s="59" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A102" s="40" t="s">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A102" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="59" t="s">
+      <c r="B102" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="59"/>
-      <c r="S102" s="59"/>
-      <c r="T102" s="59"/>
-      <c r="U102" s="59"/>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A103" s="40" t="s">
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
+      <c r="P102" s="58"/>
+      <c r="Q102" s="58"/>
+      <c r="R102" s="58"/>
+      <c r="S102" s="58"/>
+      <c r="T102" s="58"/>
+      <c r="U102" s="58"/>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A103" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="59" t="s">
+      <c r="B103" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="59"/>
-      <c r="N103" s="59"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="59"/>
-      <c r="S103" s="59"/>
-      <c r="T103" s="59"/>
-      <c r="U103" s="59"/>
-      <c r="V103" s="59"/>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
+      <c r="P103" s="58"/>
+      <c r="Q103" s="58"/>
+      <c r="R103" s="58"/>
+      <c r="S103" s="58"/>
+      <c r="T103" s="58"/>
+      <c r="U103" s="58"/>
+      <c r="V103" s="58"/>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A104" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B104" s="59" t="s">
+      <c r="B104" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="C104" s="59"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="59"/>
-      <c r="M104" s="59"/>
-      <c r="N104" s="59"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="59"/>
-      <c r="S104" s="59"/>
-      <c r="T104" s="59"/>
-      <c r="U104" s="59"/>
-      <c r="V104" s="59"/>
-      <c r="W104" s="59"/>
-      <c r="X104" s="59"/>
-      <c r="Y104" s="59"/>
-      <c r="Z104" s="59"/>
-      <c r="AA104" s="59"/>
-      <c r="AB104" s="59"/>
-      <c r="AC104" s="59"/>
-      <c r="AD104" s="59"/>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A105" s="40" t="s">
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="58"/>
+      <c r="S104" s="58"/>
+      <c r="T104" s="58"/>
+      <c r="U104" s="58"/>
+      <c r="V104" s="58"/>
+      <c r="W104" s="58"/>
+      <c r="X104" s="58"/>
+      <c r="Y104" s="58"/>
+      <c r="Z104" s="58"/>
+      <c r="AA104" s="58"/>
+      <c r="AB104" s="58"/>
+      <c r="AC104" s="58"/>
+      <c r="AD104" s="58"/>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A105" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="59" t="s">
+      <c r="B105" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="59"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="59"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="59"/>
-      <c r="S105" s="59"/>
-      <c r="T105" s="59"/>
-      <c r="U105" s="59"/>
-      <c r="V105" s="59"/>
-      <c r="W105" s="59"/>
-      <c r="X105" s="59"/>
-      <c r="Y105" s="59"/>
-      <c r="Z105" s="59"/>
-      <c r="AA105" s="59"/>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A106" s="40" t="s">
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="58"/>
+      <c r="M105" s="58"/>
+      <c r="N105" s="58"/>
+      <c r="O105" s="58"/>
+      <c r="P105" s="58"/>
+      <c r="Q105" s="58"/>
+      <c r="R105" s="58"/>
+      <c r="S105" s="58"/>
+      <c r="T105" s="58"/>
+      <c r="U105" s="58"/>
+      <c r="V105" s="58"/>
+      <c r="W105" s="58"/>
+      <c r="X105" s="58"/>
+      <c r="Y105" s="58"/>
+      <c r="Z105" s="58"/>
+      <c r="AA105" s="58"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A106" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B106" s="59" t="s">
+      <c r="B106" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="59"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="60"/>
-      <c r="S106" s="60"/>
-      <c r="T106" s="60"/>
-      <c r="U106" s="60"/>
-      <c r="V106" s="60"/>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A107" s="40" t="s">
+      <c r="C106" s="58"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="58"/>
+      <c r="J106" s="58"/>
+      <c r="K106" s="58"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="58"/>
+      <c r="N106" s="58"/>
+      <c r="O106" s="58"/>
+      <c r="P106" s="58"/>
+      <c r="Q106" s="58"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A107" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="59"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="59"/>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A108" s="40" t="s">
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A108" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="59" t="s">
+      <c r="B108" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="C108" s="59"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-      <c r="J108" s="59"/>
-      <c r="K108" s="59"/>
-      <c r="L108" s="59"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="59"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="59"/>
-      <c r="S108" s="59"/>
-      <c r="T108" s="59"/>
-      <c r="U108" s="59"/>
-      <c r="V108" s="59"/>
-      <c r="W108" s="59"/>
-      <c r="X108" s="59"/>
-      <c r="Y108" s="59"/>
-      <c r="Z108" s="59"/>
-      <c r="AA108" s="59"/>
-    </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A110" s="61" t="s">
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="58"/>
+      <c r="O108" s="58"/>
+      <c r="P108" s="58"/>
+      <c r="Q108" s="58"/>
+      <c r="R108" s="58"/>
+      <c r="S108" s="58"/>
+      <c r="T108" s="58"/>
+      <c r="U108" s="58"/>
+      <c r="V108" s="58"/>
+      <c r="W108" s="58"/>
+      <c r="X108" s="58"/>
+      <c r="Y108" s="58"/>
+      <c r="Z108" s="58"/>
+      <c r="AA108" s="58"/>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A110" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="B110" s="61" t="s">
+      <c r="B110" s="59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A112" s="61" t="s">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A112" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="B112" s="61"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A113" s="40" t="s">
+      <c r="B112" s="59"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A113" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="59" t="s">
+      <c r="B113" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C113" s="59"/>
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="59"/>
-      <c r="I113" s="59"/>
-      <c r="J113" s="59"/>
-      <c r="K113" s="59"/>
-      <c r="L113" s="59"/>
-      <c r="M113" s="59"/>
-      <c r="N113" s="59"/>
-      <c r="O113" s="59"/>
-      <c r="P113" s="59"/>
-      <c r="Q113" s="59"/>
-      <c r="R113" s="59"/>
-      <c r="S113" s="59"/>
-      <c r="T113" s="59"/>
-      <c r="U113" s="59"/>
-      <c r="V113" s="59"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A114" s="40" t="s">
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="58"/>
+      <c r="G113" s="58"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="58"/>
+      <c r="J113" s="58"/>
+      <c r="K113" s="58"/>
+      <c r="L113" s="58"/>
+      <c r="M113" s="58"/>
+      <c r="N113" s="58"/>
+      <c r="O113" s="58"/>
+      <c r="P113" s="58"/>
+      <c r="Q113" s="58"/>
+      <c r="R113" s="58"/>
+      <c r="S113" s="58"/>
+      <c r="T113" s="58"/>
+      <c r="U113" s="58"/>
+      <c r="V113" s="58"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A114" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B114" s="59" t="s">
+      <c r="B114" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C114" s="59"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
-      <c r="N114" s="59"/>
-      <c r="O114" s="59"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="59"/>
-      <c r="R114" s="59"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A115" s="40" t="s">
+      <c r="C114" s="58"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="J114" s="58"/>
+      <c r="K114" s="58"/>
+      <c r="L114" s="58"/>
+      <c r="M114" s="58"/>
+      <c r="N114" s="58"/>
+      <c r="O114" s="58"/>
+      <c r="P114" s="58"/>
+      <c r="Q114" s="58"/>
+      <c r="R114" s="58"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A115" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B115" s="59" t="s">
+      <c r="B115" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="59"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59"/>
-      <c r="H115" s="59"/>
-      <c r="I115" s="59"/>
-      <c r="J115" s="59"/>
-      <c r="K115" s="59"/>
-      <c r="L115" s="59"/>
-      <c r="M115" s="59"/>
-      <c r="N115" s="59"/>
-      <c r="O115" s="59"/>
-      <c r="P115" s="59"/>
-      <c r="Q115" s="59"/>
-      <c r="R115" s="59"/>
-      <c r="S115" s="59"/>
-      <c r="T115" s="59"/>
-      <c r="U115" s="59"/>
-      <c r="V115" s="59"/>
-      <c r="W115" s="59"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="58"/>
+      <c r="N115" s="58"/>
+      <c r="O115" s="58"/>
+      <c r="P115" s="58"/>
+      <c r="Q115" s="58"/>
+      <c r="R115" s="58"/>
+      <c r="S115" s="58"/>
+      <c r="T115" s="58"/>
+      <c r="U115" s="58"/>
+      <c r="V115" s="58"/>
+      <c r="W115" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5144,39 +5146,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F439B-9760-4E2D-9273-BA22847E3391}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="5.08984375" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" customWidth="1"/>
-    <col min="8" max="10" width="4.26953125" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="14" width="5.26953125" customWidth="1"/>
+    <col min="13" max="14" width="5.28515625" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="4.26953125" customWidth="1"/>
-    <col min="17" max="17" width="6.453125" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="5.26953125" customWidth="1"/>
-    <col min="20" max="20" width="8.26953125" customWidth="1"/>
-    <col min="21" max="21" width="10.1796875" customWidth="1"/>
-    <col min="22" max="22" width="3.81640625" customWidth="1"/>
-    <col min="23" max="23" width="13.81640625" customWidth="1"/>
-    <col min="24" max="24" width="11.26953125" customWidth="1"/>
-    <col min="25" max="25" width="13.7265625" customWidth="1"/>
-    <col min="26" max="26" width="12.7265625" customWidth="1"/>
-    <col min="29" max="29" width="7.26953125" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="27">
@@ -5190,7 +5191,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D2" s="28" t="s">
         <v>78</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>272</v>
       </c>
@@ -5259,7 +5260,7 @@
       <c r="R3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="76" t="s">
+      <c r="S3" s="72" t="s">
         <v>265</v>
       </c>
       <c r="T3" s="31" t="s">
@@ -5269,8 +5270,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="83">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="79">
         <v>44258</v>
       </c>
       <c r="B4" s="32">
@@ -5346,8 +5347,8 @@
         <v>20.000000000000036</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="83">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="79">
         <v>44259</v>
       </c>
       <c r="B5" s="32">
@@ -5424,8 +5425,8 @@
       </c>
       <c r="AD5" s="36"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6" s="83">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
         <v>44260</v>
       </c>
       <c r="B6" s="32">
@@ -5502,8 +5503,8 @@
       </c>
       <c r="AD6" s="36"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="83">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
         <v>44261</v>
       </c>
       <c r="B7" s="32">
@@ -5590,14 +5591,14 @@
         <f>IF(B1=1,"Sleep Quality","")</f>
         <v>Sleep Quality</v>
       </c>
-      <c r="Z7" s="81" t="str">
+      <c r="Z7" s="77" t="str">
         <f>IF(B1=1,"Missing day(s)","")</f>
         <v>Missing day(s)</v>
       </c>
       <c r="AD7" s="36"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="83">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
         <v>44262</v>
       </c>
       <c r="B8" s="32">
@@ -5689,8 +5690,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="83">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
         <v>44263</v>
       </c>
       <c r="B9" s="32">
@@ -5782,8 +5783,8 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="83">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
         <v>44264</v>
       </c>
       <c r="B10" s="32">
@@ -5875,8 +5876,8 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="83">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
         <v>44265</v>
       </c>
       <c r="B11" s="32">
@@ -5963,13 +5964,13 @@
         <f>IF(B1=0,"Sleep Quality","")</f>
         <v/>
       </c>
-      <c r="Z11" s="81" t="str">
+      <c r="Z11" s="77" t="str">
         <f>IF(B1=0,"Missing day(s)","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="83">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
         <v>44266</v>
       </c>
       <c r="B12" s="32">
@@ -6061,8 +6062,8 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="83">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
         <v>44267</v>
       </c>
       <c r="B13" s="32">
@@ -6154,8 +6155,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A14" s="83">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
         <v>44268</v>
       </c>
       <c r="B14" s="32">
@@ -6247,8 +6248,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15" s="83">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
         <v>44269</v>
       </c>
       <c r="B15" s="32">
@@ -6323,26 +6324,26 @@
         <f t="shared" si="10"/>
         <v>25.000000000000071</v>
       </c>
-      <c r="W15" s="86" t="s">
+      <c r="W15" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="X15" s="87" cm="1">
+      <c r="X15" s="82" cm="1">
         <f t="array" ref="X15">_xlfn.IFS(B1=0,X12-X13,B1=1,X8-X9)</f>
         <v>2.6825396825396819</v>
       </c>
-      <c r="Y15" s="88" t="s">
+      <c r="Y15" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="Z15" s="87" cm="1">
+      <c r="Z15" s="82" cm="1">
         <f t="array" ref="Z15">_xlfn.IFS(B1=0,X14-X13,B1=1,X10-X9)</f>
         <v>2.4444444444444446</v>
       </c>
-      <c r="AA15" s="89" t="s">
+      <c r="AA15" s="84" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A16" s="83">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
         <v>44270</v>
       </c>
       <c r="B16" s="32">
@@ -6421,8 +6422,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="83">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
         <v>44271</v>
       </c>
       <c r="B17" s="32">
@@ -6498,7 +6499,7 @@
         <v>24.999999999999964</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32">
         <v>15</v>
@@ -6561,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="32">
         <v>16</v>
@@ -6624,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32">
         <v>17</v>
@@ -6687,12 +6688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>162</v>
       </c>
@@ -6700,7 +6701,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>161</v>
       </c>
@@ -6708,17 +6709,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="32" t="str">
         <f>IF(C15="ESD",15,"")</f>
         <v/>
@@ -6780,9 +6781,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="X8:Y10">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="8">
-      <formula>LEN(TRIM(X8))&gt;0</formula>
+  <conditionalFormatting sqref="W12:W14">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="4">
+      <formula>LEN(TRIM(W12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:Z7 W8:W10">
@@ -6790,29 +6791,29 @@
       <formula>LEN(TRIM(W7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12:W14 W11:Y11">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
+  <conditionalFormatting sqref="W11:Z11">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(W11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X8:Y10">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
+      <formula>LEN(TRIM(X8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12:Y14">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(X12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z10 Z12:Z14">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="7">
       <formula>LEN(TRIM(Z8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(Z11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(AA12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X12:Y14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(X12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6821,26 +6822,479 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467CBF03-7E5A-41E4-9355-E5D133DD69A2}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="79">
+        <v>44258</v>
+      </c>
+      <c r="B2" s="85">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C2" s="85">
+        <v>0.96875</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="85">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="H2" s="85">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="79">
+        <v>44259</v>
+      </c>
+      <c r="B3" s="85">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C3" s="85">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="85">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="79">
+        <v>44260</v>
+      </c>
+      <c r="B4" s="85">
+        <v>0.96875</v>
+      </c>
+      <c r="C4" s="85">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="85">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="85">
+        <v>0.34375</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="79">
+        <v>44261</v>
+      </c>
+      <c r="B5" s="85">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C5" s="85">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="85">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="85">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
+        <v>44262</v>
+      </c>
+      <c r="B6" s="85">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C6" s="85">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="85">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H6" s="85">
+        <v>0.375</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
+        <v>44263</v>
+      </c>
+      <c r="B7" s="85">
+        <v>0.96875</v>
+      </c>
+      <c r="C7" s="85">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="85">
+        <v>0.34375</v>
+      </c>
+      <c r="H7" s="85">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
+        <v>44264</v>
+      </c>
+      <c r="B8" s="85">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C8" s="85">
+        <v>0.96875</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="85">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="H8" s="85">
+        <v>0.34375</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
+        <v>44265</v>
+      </c>
+      <c r="B9" s="85">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C9" s="85">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="85">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="H9" s="85">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
+        <v>44266</v>
+      </c>
+      <c r="B10" s="85">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="C10" s="85">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="85">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="85">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
+        <v>44267</v>
+      </c>
+      <c r="B11" s="85">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="C11" s="85">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="85">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H11" s="85">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
+        <v>44268</v>
+      </c>
+      <c r="B12" s="85">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="C12" s="85">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="85">
+        <v>0.34375</v>
+      </c>
+      <c r="H12" s="85">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
+        <v>44269</v>
+      </c>
+      <c r="B13" s="85">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" s="85">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="85">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="H13" s="85">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <v>44270</v>
+      </c>
+      <c r="B14" s="85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C14" s="85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="85">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="H14" s="85">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
+        <v>44271</v>
+      </c>
+      <c r="B15" s="85">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C15" s="85">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="85">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="H15" s="85">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A0A131-AB0B-48E7-BA89-4CA72DAFD876}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="2.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" customWidth="1"/>
-    <col min="12" max="12" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>99</v>
       </c>
@@ -6860,7 +7314,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6874,7 +7328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -6912,7 +7366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -6950,7 +7404,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>24</v>
       </c>
@@ -6992,7 +7446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -7018,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
@@ -7056,7 +7510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -7098,7 +7552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -7124,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
@@ -7150,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>40</v>
       </c>
@@ -7176,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -7202,7 +7656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
@@ -7228,7 +7682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
@@ -7254,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>53</v>
       </c>
@@ -7280,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
@@ -7306,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -7332,7 +7786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>62</v>
       </c>
@@ -7358,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
@@ -7384,7 +7838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
@@ -7410,7 +7864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -7436,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>73</v>
       </c>
@@ -7462,7 +7916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>75</v>
       </c>
@@ -7493,7 +7947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA813570-53F3-4A84-BAEE-DE1DA48FE075}">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -7501,353 +7955,349 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
       <c r="B4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="49">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="48">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="53" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="37"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>282</v>
       </c>
       <c r="B20" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="42" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
         <v>283</v>
       </c>
       <c r="B21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="63"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
       <c r="B26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="49">
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="48">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
         <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="53" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="37"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="77" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="53" t="s">
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="37"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="77" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="79"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="53" t="s">
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="37"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="77" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="53" t="s">
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="37"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="42" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
         <v>282</v>
       </c>
       <c r="B42" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="42" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
         <v>283</v>
       </c>
       <c r="B43" s="15"/>
